--- a/7/1/1/4/4/Trimestral 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/4/4/Trimestral 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Serie</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2375,28 +2378,57 @@
         <v>106</v>
       </c>
       <c r="B99">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="C99">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E99">
-        <v>21.9</v>
+        <v>21.5</v>
       </c>
       <c r="F99">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="G99">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="H99">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="I99">
         <v>-0.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100">
+        <v>21.8</v>
+      </c>
+      <c r="C100">
+        <v>20.2</v>
+      </c>
+      <c r="D100">
+        <v>3.3</v>
+      </c>
+      <c r="E100">
+        <v>18.5</v>
+      </c>
+      <c r="F100">
+        <v>0.2</v>
+      </c>
+      <c r="G100">
+        <v>22.4</v>
+      </c>
+      <c r="H100">
+        <v>20.7</v>
+      </c>
+      <c r="I100">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
